--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B4C85A-6127-4A13-BF81-47C9A0EDD2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C39AE-CE5E-4131-B304-96B8E3DC99A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Timing</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>strats-sources\assets\timer.png</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>strats-sources\assets\base-rulebook.png</t>
   </si>
 </sst>
 </file>
@@ -430,13 +439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88374-B535-46D0-A48E-0EFF11686FCD}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="59.42578125" style="1"/>
+    <col min="1" max="1" width="59.42578125" style="1"/>
+    <col min="2" max="2" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="59.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -480,6 +491,15 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C39AE-CE5E-4131-B304-96B8E3DC99A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCBA37-53A2-4A12-949E-796371DEBE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Timing</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Relance de commandement</t>
   </si>
   <si>
-    <t>Jet, de touche, svg, avance, charge, psy, abjurer, nombre attaque</t>
-  </si>
-  <si>
-    <t>Utilisez ce stratagème après que vous ayez effectué un jet de touche, blessure, dégats, sauvegarde, Avance, charge, psy, abjurer ou nombre d'attaque effectuées par une arme. &lt;strong&gt;Relancez ce jet ou ce test&lt;/strong&gt;.</t>
-  </si>
-  <si>
     <t>PageReference</t>
   </si>
   <si>
@@ -83,6 +77,33 @@
   </si>
   <si>
     <t>strats-sources\assets\base-rulebook.png</t>
+  </si>
+  <si>
+    <t>Utilisez ce stratag&amp;egrave;me apr&amp;egrave;s que vous ayez effectu&amp;eacute; un jet de touche, blessure, d&amp;eacute;gats, sauvegarde, Avance, charge, psy, abjurer ou nombre d'attaque effectu&amp;eacute;es par une arme. &lt;strong&gt;Relancez ce jet ou ce test&lt;/strong&gt;.</t>
+  </si>
+  <si>
+    <t>Apr&amp;egrave; jet touche, svg, avance, charge, psy, abjurer, nombre attaque</t>
+  </si>
+  <si>
+    <t>Exterminez-les</t>
+  </si>
+  <si>
+    <t>Unit&amp;eacute; ennemie bat en retraite</t>
+  </si>
+  <si>
+    <t>Utilisez ce stratag&amp;egrave;me quand une unit&amp;eacute; ennemie bat en retraite, avant que la moindre figurine de l'unt&amp;eacute; soit d&amp;eacute;plac&amp;eacute;e.&lt;br/&gt;Jetez 1D6 pour chaque figurine se trouvant &amp;agrave; d'engagement de l'unit&amp;eacute; ennemie ; pour chaque r&amp;eacute;sultat de 6, l'unit&amp;eacute; ennemie subit 1 blessure mortelle.</t>
+  </si>
+  <si>
+    <t>Repli desesp&amp;eacute;r&amp;eacute;</t>
+  </si>
+  <si>
+    <t>Phase de mouvement</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Choisir une unit&amp;eacute; qui ne s'est pas d&amp;eacute;plac&amp;eacute; &amp;agrave; port&amp;eacute;e d'engagement d'aun moins une unit&amp;eacute; ennemie.&lt;br/&gt;&lt;strong&gt;Jetez 1D6&lt;/strong&gt; pour chaque fig de l'unit&amp;eacute; finie. &lt;strong&gt;Sur 1 l'unit&amp;eacute est d&amp;eacute;truite&lt;/strong&gt;. Si l'unit&amp;eacute; n'est pas d&amp;eacute;truite elle peut tenter de &lt;i&gt;Battre en Retraite&lt;/i&gt;.&lt;br/&gt;Si la figurine termine son mouvement &amp;agrave; &lt;i&gt;Port&amp;eacute;e d'Engagement&lt;/i&gt;, elle d&amp;eacute;truite.&lt;br/&gt;&lt;strong&gt;L'unit&amp;eacute; ne peut plus rien faire&lt;/strong&gt;, m&amp;ecirc;me si elle a une r&amp;egrave;gle qui lui permet de faire actions apr&amp;egrave; avoir Battu en Retraite.</t>
   </si>
 </sst>
 </file>
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88374-B535-46D0-A48E-0EFF11686FCD}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -476,30 +497,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCBA37-53A2-4A12-949E-796371DEBE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600181C-C0A0-405E-8B62-457E5795FCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Timing</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Choisir une unit&amp;eacute; qui ne s'est pas d&amp;eacute;plac&amp;eacute; &amp;agrave; port&amp;eacute;e d'engagement d'aun moins une unit&amp;eacute; ennemie.&lt;br/&gt;&lt;strong&gt;Jetez 1D6&lt;/strong&gt; pour chaque fig de l'unit&amp;eacute; finie. &lt;strong&gt;Sur 1 l'unit&amp;eacute est d&amp;eacute;truite&lt;/strong&gt;. Si l'unit&amp;eacute; n'est pas d&amp;eacute;truite elle peut tenter de &lt;i&gt;Battre en Retraite&lt;/i&gt;.&lt;br/&gt;Si la figurine termine son mouvement &amp;agrave; &lt;i&gt;Port&amp;eacute;e d'Engagement&lt;/i&gt;, elle d&amp;eacute;truite.&lt;br/&gt;&lt;strong&gt;L'unit&amp;eacute; ne peut plus rien faire&lt;/strong&gt;, m&amp;ecirc;me si elle a une r&amp;egrave;gle qui lui permet de faire actions apr&amp;egrave; avoir Battu en Retraite.</t>
+  </si>
+  <si>
+    <t>D&amp;eacute;barquement d'urgence</t>
+  </si>
+  <si>
+    <t>Figurine de transport d&amp;eacute;truite</t>
+  </si>
+  <si>
+    <t>Les figurines peuvent &amp;ecirc;tre &lt;strong&gt;plac&amp;eacute;es enti&amp;egrave;rement &amp;agrave; 6" de la figurine d&amp;eacute;truite au lieu de 3"&lt;/strong&gt; quand elles d&amp;eacute;barquent, avant de retirer la figurine du champ de bataille.&lt;br/&gt;Les figurines ne sont &lt;strong&gt;pas affect&amp;eacute;es par l'aptitude Explosion&lt;/strong&gt;.&lt;br/&gt;&lt;strong&gt;Jetez 1D6&lt;/strong&gt; pour chaque figurine, &lt;strong&gt;sur 1 ou 2 la figurine est d&amp;eacute;truite&lt;/strong&gt;.&lt;br/&gt;&lt;br/&gt;Les unit&amp;eacute;s ne peuvent pas de d&amp;eacute;clarer de charge, d'Intervention H&amp;eacute;ro&amp;iuml;que</t>
   </si>
 </sst>
 </file>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88374-B535-46D0-A48E-0EFF11686FCD}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -505,10 +514,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -531,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -557,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -572,6 +581,32 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600181C-C0A0-405E-8B62-457E5795FCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1781CC6-4C76-4FA7-AD66-570B228E4265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Timing</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>Les figurines peuvent &amp;ecirc;tre &lt;strong&gt;plac&amp;eacute;es enti&amp;egrave;rement &amp;agrave; 6" de la figurine d&amp;eacute;truite au lieu de 3"&lt;/strong&gt; quand elles d&amp;eacute;barquent, avant de retirer la figurine du champ de bataille.&lt;br/&gt;Les figurines ne sont &lt;strong&gt;pas affect&amp;eacute;es par l'aptitude Explosion&lt;/strong&gt;.&lt;br/&gt;&lt;strong&gt;Jetez 1D6&lt;/strong&gt; pour chaque figurine, &lt;strong&gt;sur 1 ou 2 la figurine est d&amp;eacute;truite&lt;/strong&gt;.&lt;br/&gt;&lt;br/&gt;Les unit&amp;eacute;s ne peuvent pas de d&amp;eacute;clarer de charge, d'Intervention H&amp;eacute;ro&amp;iuml;que</t>
+  </si>
+  <si>
+    <t>Tir en &amp;eacute;tat d'alerte</t>
+  </si>
+  <si>
+    <t>Apr&amp;egrave;s qu'une unit&amp;eacute; ennemie ait d&amp;eacute;clar&amp;eacute; une charge</t>
+  </si>
+  <si>
+    <t>Utilisez ce stratag&amp;egrave;me qu'une unit&amp;eacute; ennemie a d&amp;eacute;clar&amp;eacute; une charge contre un ou plusieurs unit&amp;eacute;s de votre arm&amp;eacute;.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Une seule des unit&amp;eacute; choisie&lt;strong&gt; comme cible de cette charge &lt;strong&gt;peut tirer&lt;/strong&gt; en &amp;Eacute;tat d'Alerte (p.227) &lt;strong&gt;avant que le jet de charge&lt;/strong&gt; n'ait lieu.</t>
   </si>
 </sst>
 </file>
@@ -467,16 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88374-B535-46D0-A48E-0EFF11686FCD}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" style="1"/>
-    <col min="2" max="2" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.42578125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="59.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -610,6 +619,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1781CC6-4C76-4FA7-AD66-570B228E4265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A6BD61-6646-4D1B-B944-FFB3DC54BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Timing</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Utilisez ce stratag&amp;egrave;me qu'une unit&amp;eacute; ennemie a d&amp;eacute;clar&amp;eacute; une charge contre un ou plusieurs unit&amp;eacute;s de votre arm&amp;eacute;.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Une seule des unit&amp;eacute; choisie&lt;strong&gt; comme cible de cette charge &lt;strong&gt;peut tirer&lt;/strong&gt; en &amp;Eacute;tat d'Alerte (p.227) &lt;strong&gt;avant que le jet de charge&lt;/strong&gt; n'ait lieu.</t>
+  </si>
+  <si>
+    <t>Contre-Offensive</t>
+  </si>
+  <si>
+    <t>Utilisez ce stratag&amp;egrave;me apr&amp;egrave;s qu'une unit&amp;eacute; ennemie a combattu &amp;agrave; ce tour.&lt;br/&gt;&lt;br/&gt;Choisissez une de vos propres unit&amp;eacute;s &amp;eacute;ligibles et combattez avec elle ensuite.</t>
+  </si>
+  <si>
+    <t>Apr&amp;egrave;s qu'une unit&amp;eacute; ait combattu</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88374-B535-46D0-A48E-0EFF11686FCD}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +654,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A6BD61-6646-4D1B-B944-FFB3DC54BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A19D3-FB11-4E9D-8028-CB6E6E707F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Timing</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Apr&amp;egrave;s qu'une unit&amp;eacute; ait combattu</t>
+  </si>
+  <si>
+    <t>Courage insens&amp;eacute;</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88374-B535-46D0-A48E-0EFF11686FCD}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +683,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/strats-sources/commonStrats.xlsx
+++ b/strats-sources/commonStrats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\gitrepos\w40k-strat-card\strats-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A19D3-FB11-4E9D-8028-CB6E6E707F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D27E11B-54B7-47E4-9F3F-2DCC20FE35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DE3896D-95B2-400C-96E2-85A96F1479CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Timing</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Courage insens&amp;eacute;</t>
+  </si>
+  <si>
+    <t>Avant de faire un test de moral</t>
+  </si>
+  <si>
+    <t>Utilisez ce stratag&amp;egrave;me avant d'effectuer un test de Moral pour une unit&amp;eacute; de votre arm&amp;eacute;. &lt;br/&gt;&lt;br/&gt;Ce &lt;strong&gt;test est automatiquement r&amp;eacute;ussi&lt;/strong&gt; (ne jetez aucun d&amp;eacute;). &lt;br/&gt;&lt;br/&gt;Vous ne pouvez utilisez ce stratag&amp;egrave;me qu'&lt;strong&gt;une seul fois par bataille&lt;/strong&gt;.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,9 +689,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
